--- a/pred_ohlcv/54_21/2019-11-01 HC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 HC ohlcv.xlsx
@@ -1484,7 +1484,7 @@
         <v>-3844.581200000001</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-3583.448500000001</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-3884.920400000001</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-3764.221999999999</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-3825.911699999999</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-3826.011699999999</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-3761.311699999999</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-3778.1668</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>276221.8332</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>257235.3906000001</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>257235.3906000001</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>257235.3906000001</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>257235.3906000001</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>257298.1805000001</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>257229.5205000001</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>257398.1638000001</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>257795.3471000001</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>257795.4471000001</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>257765.3388000001</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>257765.2388000001</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>257765.3388000001</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>257748.3873000001</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-01 HC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 HC ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-2047.7055</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-2241.5767</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-3471.469100000001</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-3471.369100000001</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-3844.581200000001</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-3844.581200000001</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-3844.581200000001</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-3565.581200000001</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-3922.927600000001</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-3583.448500000001</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-3601.606300000001</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-3812.370400000001</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-3885.020400000001</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-3884.920400000001</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-4229.920400000001</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-4229.820400000001</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-4248.225</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-4131.555</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-4131.455</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-4631.455</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-4254.2268</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-4396.9775</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-4396.9775</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-4415.1275</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-3269.7275</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-3229.7275</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-3598.995399999999</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-3604.0634</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-3805.6846</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-3805.6846</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-3772.897199999999</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-3772.897199999999</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-3782.897199999999</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-3742.897199999999</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-3764.221999999999</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-3764.221999999999</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-3764.221999999999</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-3764.221999999999</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-3764.221999999999</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-3764.221999999999</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-3654.598799999999</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-3719.298799999999</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-3825.811699999999</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-3825.911699999999</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-3826.011699999999</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-3761.311699999999</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-3778.1668</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>276221.8332</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>276221.8332</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>275779.9219</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>275863.9833</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>275827.2533</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>257235.3906000001</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>257235.3906000001</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>257235.3906000001</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>257235.3906000001</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>257298.1805000001</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>257229.5205000001</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>257398.1638000001</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>257795.3471000001</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>257795.4471000001</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>257765.2388000001</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>257765.3388000001</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>257748.3873000001</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
